--- a/Practice/Sheets/Monthly Sales.xlsx
+++ b/Practice/Sheets/Monthly Sales.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krishna\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data_Analysis\Practice\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A806319-41A7-4005-BA0D-DB59D7EA4C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655422A6-7684-4E03-A7C5-F5AAC42E27B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Monthly sales</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>June - July</t>
+  </si>
+  <si>
+    <t>Lowest Monthly sales</t>
+  </si>
+  <si>
+    <t>Highest Monthly sales</t>
   </si>
 </sst>
 </file>
@@ -62,7 +68,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -103,7 +109,7 @@
       <name val="&quot;Open Sans&quot;"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,8 +128,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -146,11 +170,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -162,7 +197,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -178,6 +213,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -398,19 +444,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.8">
+    <row r="1" spans="1:10" ht="13.8">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -435,8 +483,14 @@
       <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="10">
         <v>2017</v>
       </c>
@@ -446,10 +500,10 @@
       <c r="C2" s="4">
         <v>79013</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="14">
         <v>47002</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="15">
         <v>163330</v>
       </c>
       <c r="F2" s="8">
@@ -464,12 +518,20 @@
         <f>(E2-D2)/D2</f>
         <v>2.4749585124037274</v>
       </c>
+      <c r="I2" s="12">
+        <f>MIN(B2:E2)</f>
+        <v>47002</v>
+      </c>
+      <c r="J2" s="13">
+        <f>MAX(B2:E2)</f>
+        <v>163330</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="10">
         <v>2018</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="14">
         <v>56980</v>
       </c>
       <c r="C3" s="4">
@@ -478,7 +540,7 @@
       <c r="D3" s="4">
         <v>59733</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="15">
         <v>158234</v>
       </c>
       <c r="F3" s="8">
@@ -493,12 +555,20 @@
         <f>(E3-D3)/D3</f>
         <v>1.6490214789145028</v>
       </c>
+      <c r="I3" s="12">
+        <f t="shared" ref="I3:I4" si="0">MIN(B3:E3)</f>
+        <v>56980</v>
+      </c>
+      <c r="J3" s="13">
+        <f t="shared" ref="J3:J4" si="1">MAX(B3:E3)</f>
+        <v>158234</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="10">
         <v>2019</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="14">
         <v>61075</v>
       </c>
       <c r="C4" s="4">
@@ -507,7 +577,7 @@
       <c r="D4" s="6">
         <v>75866</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="15">
         <v>167789</v>
       </c>
       <c r="F4" s="8">
@@ -522,11 +592,22 @@
         <f>(E4-D4)/D4</f>
         <v>1.2116494872538424</v>
       </c>
+      <c r="I4" s="12">
+        <f t="shared" si="0"/>
+        <v>61075</v>
+      </c>
+      <c r="J4" s="13">
+        <f t="shared" si="1"/>
+        <v>167789</v>
+      </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:10" ht="13.2">
       <c r="G10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="I2 I3:I4 J2:J4" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>